--- a/python_work/pythonProject/Customer_Mail.xlsx
+++ b/python_work/pythonProject/Customer_Mail.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,42 +424,28 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sdfasdfad</t>
+          <t>asdfsdafsdafsd</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>asdfsdafsdafsd</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sagwge</t>
+          <t>asdfsdafsdafsd</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15615</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>45156156</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>asdfsad</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ljkljkljk</t>
+          <t>asdfsdafsdafsd</t>
         </is>
       </c>
     </row>
